--- a/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/101-TRUONGHOP-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/101-TRUONGHOP-KHONGDUDK-NQ10.xlsx
@@ -783,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3073,10 +3073,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="6">
+        <v>21</v>
+      </c>
+      <c r="E88" s="6">
         <v>230</v>
-      </c>
-      <c r="E88" s="6">
-        <v>21</v>
       </c>
       <c r="F88" s="6">
         <v>7015</v>
@@ -3440,10 +3440,10 @@
         <v>21</v>
       </c>
       <c r="E102" s="11">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F102" s="11">
-        <v>4096</v>
+        <v>31074</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>9</v>

--- a/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/101-TRUONGHOP-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/101-TRUONGHOP-KHONGDUDK-NQ10.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Hồ Thị Thế</t>
+  </si>
+  <si>
+    <t>Hồ Văn Thưa</t>
+  </si>
+  <si>
+    <t>Hồ Văn Viên</t>
+  </si>
+  <si>
+    <t>Hồ Văn Ý</t>
   </si>
 </sst>
 </file>
@@ -770,7 +779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>8</v>
@@ -1152,10 +1161,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="6">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="F14" s="6">
-        <v>6891</v>
+        <v>19463</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>9</v>
@@ -1221,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>8</v>
@@ -1230,10 +1239,10 @@
         <v>21</v>
       </c>
       <c r="E17" s="6">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="F17" s="6">
-        <v>7258</v>
+        <v>7637</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>9</v>
@@ -1273,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>8</v>
@@ -1282,10 +1291,10 @@
         <v>21</v>
       </c>
       <c r="E19" s="6">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="F19" s="6">
-        <v>4680</v>
+        <v>39426</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>9</v>
@@ -1299,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>8</v>
@@ -1308,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="E20" s="6">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="F20" s="6">
-        <v>5223</v>
+        <v>20344</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>9</v>
@@ -1325,22 +1334,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="F21" s="6">
-        <v>3403</v>
+        <v>7651</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>11</v>
